--- a/Instances/K0011131_Binomial_b2_fe0_en_rk0_ll0_l20_HFalse_c0.xlsx
+++ b/Instances/K0011131_Binomial_b2_fe0_en_rk0_ll0_l20_HFalse_c0.xlsx
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
